--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -2,18 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
-  <workbookPr/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Education/4_Year/DiplomaWork/Notebooks/NEW/brain_tumor_segmentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16120" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16080" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Time" sheetId="1" r:id="rId1"/>
     <sheet name="Accuracy" sheetId="2" r:id="rId2"/>
+    <sheet name="Time - 95" sheetId="3" r:id="rId3"/>
+    <sheet name="Accuracy - 95" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
   <si>
     <t>K Means</t>
   </si>
@@ -45,14 +47,221 @@
     <t>CUDA K Means</t>
   </si>
   <si>
-    <t>s</t>
+    <t>[24.74, 40.33]</t>
+  </si>
+  <si>
+    <t>[38.90, 58.72]</t>
+  </si>
+  <si>
+    <t>[47.51, 73.57]</t>
+  </si>
+  <si>
+    <t>[70.98, 98.52]</t>
+  </si>
+  <si>
+    <t>[81.36, 114.74</t>
+  </si>
+  <si>
+    <t>[89.00, 177.00</t>
+  </si>
+  <si>
+    <t>[96.06, 144.99</t>
+  </si>
+  <si>
+    <t>[555.01, 789.8</t>
+  </si>
+  <si>
+    <t>[965.10, 1463.</t>
+  </si>
+  <si>
+    <t>[1383.32, 1910</t>
+  </si>
+  <si>
+    <t>[1712.07, 2489</t>
+  </si>
+  <si>
+    <t>[2034.09, 2977</t>
+  </si>
+  <si>
+    <t>[2333.74, 3423</t>
+  </si>
+  <si>
+    <t>[2640.47, 3789</t>
+  </si>
+  <si>
+    <t>[209.20, 298.7</t>
+  </si>
+  <si>
+    <t>[215.17, 330.9</t>
+  </si>
+  <si>
+    <t>[273.07, 380.9</t>
+  </si>
+  <si>
+    <t>[303.00, 424.7</t>
+  </si>
+  <si>
+    <t>[345.87, 508.7</t>
+  </si>
+  <si>
+    <t>[402.42, 576.9</t>
+  </si>
+  <si>
+    <t>[420.45, 598.8</t>
+  </si>
+  <si>
+    <t>[51.34, 84.30]</t>
+  </si>
+  <si>
+    <t>[69.77, 128.26</t>
+  </si>
+  <si>
+    <t>[93.44, 250.33</t>
+  </si>
+  <si>
+    <t>[145.33, 223.7</t>
+  </si>
+  <si>
+    <t>[193.48, 354.3</t>
+  </si>
+  <si>
+    <t>[250.90, 480.3</t>
+  </si>
+  <si>
+    <t>[0.00, 2878.78</t>
+  </si>
+  <si>
+    <t>[17.91, 24.36]</t>
+  </si>
+  <si>
+    <t>[21.40, 28.98]</t>
+  </si>
+  <si>
+    <t>[26.18, 35.37]</t>
+  </si>
+  <si>
+    <t>[30.39, 41.18]</t>
+  </si>
+  <si>
+    <t>[35.01, 47.38]</t>
+  </si>
+  <si>
+    <t>[39.52, 53.53]</t>
+  </si>
+  <si>
+    <t>[44.16, 59.85]</t>
+  </si>
+  <si>
+    <t>[57.26, 76.18]</t>
+  </si>
+  <si>
+    <t>[74.76, 84.65]</t>
+  </si>
+  <si>
+    <t>[73.71, 82.63]</t>
+  </si>
+  <si>
+    <t>[70.71, 79.63]</t>
+  </si>
+  <si>
+    <t>[65.95, 74.44]</t>
+  </si>
+  <si>
+    <t>[58.90, 68.19]</t>
+  </si>
+  <si>
+    <t>[55.14, 63.95]</t>
+  </si>
+  <si>
+    <t>[54.04, 73.89]</t>
+  </si>
+  <si>
+    <t>[66.18, 81.65]</t>
+  </si>
+  <si>
+    <t>[71.39, 82.03]</t>
+  </si>
+  <si>
+    <t>[71.02, 80.02]</t>
+  </si>
+  <si>
+    <t>[69.66, 78.23]</t>
+  </si>
+  <si>
+    <t>[67.14, 75.26]</t>
+  </si>
+  <si>
+    <t>[64.68, 72.62]</t>
+  </si>
+  <si>
+    <t>[48.93, 67.14]</t>
+  </si>
+  <si>
+    <t>[74.91, 83.16]</t>
+  </si>
+  <si>
+    <t>[72.87, 81.89]</t>
+  </si>
+  <si>
+    <t>[69.71, 78.99]</t>
+  </si>
+  <si>
+    <t>[64.79, 74.05]</t>
+  </si>
+  <si>
+    <t>[60.02, 69.11]</t>
+  </si>
+  <si>
+    <t>[55.54, 64.36]</t>
+  </si>
+  <si>
+    <t>[64.75, 80.25]</t>
+  </si>
+  <si>
+    <t>[73.42, 83.30]</t>
+  </si>
+  <si>
+    <t>[72.45, 81.91]</t>
+  </si>
+  <si>
+    <t>[69.08, 79.32]</t>
+  </si>
+  <si>
+    <t>[63.16, 73.91]</t>
+  </si>
+  <si>
+    <t>[58.70, 68.69]</t>
+  </si>
+  <si>
+    <t>[55.52, 65.73]</t>
+  </si>
+  <si>
+    <t>[61.66, 77.99]</t>
+  </si>
+  <si>
+    <t>[75.25, 84.94]</t>
+  </si>
+  <si>
+    <t>[72.85, 82.13]</t>
+  </si>
+  <si>
+    <t>[67.01, 77.22]</t>
+  </si>
+  <si>
+    <t>[61.81, 71.65]</t>
+  </si>
+  <si>
+    <t>[55.82, 65.52]</t>
+  </si>
+  <si>
+    <t>[51.17, 60.17]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,16 +270,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -121,37 +342,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Открывавшаяся гиперссылка" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Открывавшаяся гиперссылка" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -448,18 +687,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="10.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>3</v>
@@ -483,8 +724,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
@@ -509,8 +750,8 @@
         <v>120.53</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -535,8 +776,8 @@
         <v>3215.06</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -561,8 +802,8 @@
         <v>509.64</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -587,8 +828,8 @@
         <v>1189.01</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -613,13 +854,10 @@
         <v>52.01</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -627,16 +865,192 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" style="7" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="5">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>66.72</v>
+      </c>
+      <c r="C2" s="3">
+        <v>79.7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>78.17</v>
+      </c>
+      <c r="E2" s="3">
+        <v>75.17</v>
+      </c>
+      <c r="F2" s="3">
+        <v>70.2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>63.55</v>
+      </c>
+      <c r="H2" s="3">
+        <v>59.55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>63.96</v>
+      </c>
+      <c r="C3" s="3">
+        <v>73.91</v>
+      </c>
+      <c r="D3" s="3">
+        <v>76.709999999999994</v>
+      </c>
+      <c r="E3" s="3">
+        <v>75.52</v>
+      </c>
+      <c r="F3" s="3">
+        <v>73.94</v>
+      </c>
+      <c r="G3" s="3">
+        <v>71.2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>68.650000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>58.03</v>
+      </c>
+      <c r="C4" s="3">
+        <v>79.040000000000006</v>
+      </c>
+      <c r="D4" s="3">
+        <v>77.38</v>
+      </c>
+      <c r="E4" s="3">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="F4" s="3">
+        <v>69.42</v>
+      </c>
+      <c r="G4" s="3">
+        <v>64.56</v>
+      </c>
+      <c r="H4" s="3">
+        <v>59.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>72.5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>78.36</v>
+      </c>
+      <c r="D5" s="3">
+        <v>77.180000000000007</v>
+      </c>
+      <c r="E5" s="3">
+        <v>74.2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>68.53</v>
+      </c>
+      <c r="G5" s="3">
+        <v>63.7</v>
+      </c>
+      <c r="H5" s="3">
+        <v>60.63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>69.819999999999993</v>
+      </c>
+      <c r="C6" s="3">
+        <v>80.09</v>
+      </c>
+      <c r="D6" s="3">
+        <v>77.489999999999995</v>
+      </c>
+      <c r="E6" s="3">
+        <v>72.11</v>
+      </c>
+      <c r="F6" s="3">
+        <v>66.73</v>
+      </c>
+      <c r="G6" s="3">
+        <v>60.67</v>
+      </c>
+      <c r="H6" s="3">
+        <v>55.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="9" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>3</v>
@@ -660,137 +1074,314 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>66.72</v>
-      </c>
-      <c r="C2" s="1">
-        <v>79.7</v>
-      </c>
-      <c r="D2" s="1">
-        <v>78.17</v>
-      </c>
-      <c r="E2" s="1">
-        <v>75.17</v>
-      </c>
-      <c r="F2" s="1">
-        <v>70.2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>63.55</v>
-      </c>
-      <c r="H2" s="1">
-        <v>59.55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>63.96</v>
-      </c>
-      <c r="C3" s="1">
-        <v>73.91</v>
-      </c>
-      <c r="D3" s="1">
-        <v>76.709999999999994</v>
-      </c>
-      <c r="E3" s="1">
-        <v>75.52</v>
-      </c>
-      <c r="F3" s="1">
-        <v>73.94</v>
-      </c>
-      <c r="G3" s="1">
-        <v>71.2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>68.650000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>58.03</v>
-      </c>
-      <c r="C4" s="1">
-        <v>79.040000000000006</v>
-      </c>
-      <c r="D4" s="1">
-        <v>77.38</v>
-      </c>
-      <c r="E4" s="1">
-        <v>74.349999999999994</v>
-      </c>
-      <c r="F4" s="1">
-        <v>69.42</v>
-      </c>
-      <c r="G4" s="1">
-        <v>64.56</v>
-      </c>
-      <c r="H4" s="1">
-        <v>59.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>72.5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>78.36</v>
-      </c>
-      <c r="D5" s="1">
-        <v>77.180000000000007</v>
-      </c>
-      <c r="E5" s="1">
-        <v>74.2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>68.53</v>
-      </c>
-      <c r="G5" s="1">
-        <v>63.7</v>
-      </c>
-      <c r="H5" s="1">
-        <v>60.63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>69.819999999999993</v>
-      </c>
-      <c r="C6" s="1">
-        <v>80.09</v>
-      </c>
-      <c r="D6" s="1">
-        <v>77.489999999999995</v>
-      </c>
-      <c r="E6" s="1">
-        <v>72.11</v>
-      </c>
-      <c r="F6" s="1">
-        <v>66.73</v>
-      </c>
-      <c r="G6" s="1">
-        <v>60.67</v>
-      </c>
-      <c r="H6" s="1">
-        <v>55.67</v>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
+    <col min="2" max="9" width="14.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="2">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>